--- a/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Adam12-Sdc4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H2">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I2">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J2">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N2">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O2">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P2">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q2">
-        <v>1.744028991073203</v>
+        <v>3.7668040048575</v>
       </c>
       <c r="R2">
-        <v>1.744028991073203</v>
+        <v>15.06721601943</v>
       </c>
       <c r="S2">
-        <v>0.0001930877545182473</v>
+        <v>0.0003823148256313019</v>
       </c>
       <c r="T2">
-        <v>0.0001930877545182473</v>
+        <v>0.0002052926431421012</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H3">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I3">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J3">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N3">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O3">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P3">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q3">
-        <v>232.7871190605756</v>
+        <v>247.9688604802126</v>
       </c>
       <c r="R3">
-        <v>232.7871190605756</v>
+        <v>1487.813162881275</v>
       </c>
       <c r="S3">
-        <v>0.02577270351023183</v>
+        <v>0.02516780048397328</v>
       </c>
       <c r="T3">
-        <v>0.02577270351023183</v>
+        <v>0.02027163454188409</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H4">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I4">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J4">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N4">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O4">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P4">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q4">
-        <v>190.4765127448186</v>
+        <v>191.3731144131425</v>
       </c>
       <c r="R4">
-        <v>190.4765127448186</v>
+        <v>1148.238686478855</v>
       </c>
       <c r="S4">
-        <v>0.02108834332606551</v>
+        <v>0.01942356936358509</v>
       </c>
       <c r="T4">
-        <v>0.02108834332606551</v>
+        <v>0.01564489117307924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H5">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I5">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J5">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N5">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O5">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P5">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q5">
-        <v>190.6105840981405</v>
+        <v>194.90585769043</v>
       </c>
       <c r="R5">
-        <v>190.6105840981405</v>
+        <v>1169.43514614258</v>
       </c>
       <c r="S5">
-        <v>0.02110318685027907</v>
+        <v>0.01978212800595529</v>
       </c>
       <c r="T5">
-        <v>0.02110318685027907</v>
+        <v>0.01593369550322288</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H6">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I6">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J6">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N6">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O6">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P6">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q6">
-        <v>9.510205239047892</v>
+        <v>10.606871056415</v>
       </c>
       <c r="R6">
-        <v>9.510205239047892</v>
+        <v>63.64122633849001</v>
       </c>
       <c r="S6">
-        <v>0.001052909202779619</v>
+        <v>0.001076552975200634</v>
       </c>
       <c r="T6">
-        <v>0.001052909202779619</v>
+        <v>0.000867119416817625</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>8.33799691907199</v>
+        <v>8.338267500000001</v>
       </c>
       <c r="H7">
-        <v>8.33799691907199</v>
+        <v>16.676535</v>
       </c>
       <c r="I7">
-        <v>0.1057167209055402</v>
+        <v>0.1000493927533854</v>
       </c>
       <c r="J7">
-        <v>0.1057167209055402</v>
+        <v>0.07129624440355156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N7">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O7">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P7">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q7">
-        <v>329.7380382175403</v>
+        <v>337.1274825613988</v>
       </c>
       <c r="R7">
-        <v>329.7380382175403</v>
+        <v>1348.509930245595</v>
       </c>
       <c r="S7">
-        <v>0.03650649026166589</v>
+        <v>0.03421702709903985</v>
       </c>
       <c r="T7">
-        <v>0.03650649026166589</v>
+        <v>0.01837361112540561</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H8">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I8">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J8">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N8">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O8">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P8">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q8">
-        <v>12.40471853085807</v>
+        <v>28.66281841161801</v>
       </c>
       <c r="R8">
-        <v>12.40471853085807</v>
+        <v>171.976910469708</v>
       </c>
       <c r="S8">
-        <v>0.001373371233399263</v>
+        <v>0.002909155987146711</v>
       </c>
       <c r="T8">
-        <v>0.001373371233399263</v>
+        <v>0.002343206234264535</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H9">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I9">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J9">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N9">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O9">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P9">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q9">
-        <v>1655.740073322314</v>
+        <v>1886.874499048711</v>
       </c>
       <c r="R9">
-        <v>1655.740073322314</v>
+        <v>16981.87049143839</v>
       </c>
       <c r="S9">
-        <v>0.1833129692568652</v>
+        <v>0.1915098566747032</v>
       </c>
       <c r="T9">
-        <v>0.1833129692568652</v>
+        <v>0.2313800422180531</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H10">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I10">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J10">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N10">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O10">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P10">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q10">
-        <v>1354.798308647898</v>
+        <v>1456.219336131138</v>
       </c>
       <c r="R10">
-        <v>1354.798308647898</v>
+        <v>13105.97402518024</v>
       </c>
       <c r="S10">
-        <v>0.1499946185418439</v>
+        <v>0.1478001618496653</v>
       </c>
       <c r="T10">
-        <v>0.1499946185418439</v>
+        <v>0.1785704834331272</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H11">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I11">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J11">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N11">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O11">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P11">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q11">
-        <v>1355.751915158754</v>
+        <v>1483.10111148265</v>
       </c>
       <c r="R11">
-        <v>1355.751915158754</v>
+        <v>13347.91000334385</v>
       </c>
       <c r="S11">
-        <v>0.1501001957660859</v>
+        <v>0.1505285494278139</v>
       </c>
       <c r="T11">
-        <v>0.1501001957660859</v>
+        <v>0.181866890437867</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H12">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I12">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J12">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N12">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O12">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P12">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q12">
-        <v>67.64303791101901</v>
+        <v>80.71107990047157</v>
       </c>
       <c r="R12">
-        <v>67.64303791101901</v>
+        <v>726.3997191042441</v>
       </c>
       <c r="S12">
-        <v>0.007489005266474448</v>
+        <v>0.00819183647433501</v>
       </c>
       <c r="T12">
-        <v>0.007489005266474448</v>
+        <v>0.009897284151251689</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>59.3054963086382</v>
+        <v>63.44854866666667</v>
       </c>
       <c r="H13">
-        <v>59.3054963086382</v>
+        <v>190.345646</v>
       </c>
       <c r="I13">
-        <v>0.7519291098661912</v>
+        <v>0.7613078814254428</v>
       </c>
       <c r="J13">
-        <v>0.7519291098661912</v>
+        <v>0.8137739463484415</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N13">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O13">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P13">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q13">
-        <v>2345.320848416003</v>
+        <v>2565.311017446697</v>
       </c>
       <c r="R13">
-        <v>2345.320848416003</v>
+        <v>15391.86610468018</v>
       </c>
       <c r="S13">
-        <v>0.2596589498015224</v>
+        <v>0.2603683210117788</v>
       </c>
       <c r="T13">
-        <v>0.2596589498015224</v>
+        <v>0.2097160398738777</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,10 +1272,10 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -1284,49 +1284,49 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H14">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I14">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J14">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N14">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O14">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P14">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q14">
-        <v>0.7740744522354417</v>
+        <v>0.009127437961999999</v>
       </c>
       <c r="R14">
-        <v>0.7740744522354417</v>
+        <v>0.054764627772</v>
       </c>
       <c r="S14">
-        <v>8.570058099785921E-05</v>
+        <v>9.26396714138188E-07</v>
       </c>
       <c r="T14">
-        <v>8.570058099785921E-05</v>
+        <v>7.461746862531885E-07</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,10 +1334,10 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
         <v>21</v>
@@ -1346,49 +1346,49 @@
         <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H15">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I15">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J15">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N15">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O15">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P15">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q15">
-        <v>103.320852231589</v>
+        <v>0.6008596113900001</v>
       </c>
       <c r="R15">
-        <v>103.320852231589</v>
+        <v>5.407736502510001</v>
       </c>
       <c r="S15">
-        <v>0.01143902507035319</v>
+        <v>6.098473328084666E-05</v>
       </c>
       <c r="T15">
-        <v>0.01143902507035319</v>
+        <v>7.36810648088324E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H16">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I16">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J16">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N16">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O16">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P16">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q16">
-        <v>84.54160052461759</v>
+        <v>0.4637210290602222</v>
       </c>
       <c r="R16">
-        <v>84.54160052461759</v>
+        <v>4.173489261542001</v>
       </c>
       <c r="S16">
-        <v>0.009359906224168907</v>
+        <v>4.706574171050707E-05</v>
       </c>
       <c r="T16">
-        <v>0.009359906224168907</v>
+        <v>5.686429666384684E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H17">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I17">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J17">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N17">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O17">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P17">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q17">
-        <v>84.60110710960804</v>
+        <v>0.4722813085591112</v>
       </c>
       <c r="R17">
-        <v>84.60110710960804</v>
+        <v>4.250531777032</v>
       </c>
       <c r="S17">
-        <v>0.009366494413318091</v>
+        <v>4.793457421672523E-05</v>
       </c>
       <c r="T17">
-        <v>0.009366494413318091</v>
+        <v>5.791401026846115E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H18">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I18">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J18">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N18">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O18">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P18">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q18">
-        <v>4.221034712578142</v>
+        <v>0.02570177726622223</v>
       </c>
       <c r="R18">
-        <v>4.221034712578142</v>
+        <v>0.231315995396</v>
       </c>
       <c r="S18">
-        <v>0.0004673260126792693</v>
+        <v>2.608622716042279E-06</v>
       </c>
       <c r="T18">
-        <v>0.0004673260126792693</v>
+        <v>3.151708453283821E-06</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
         <v>24</v>
       </c>
-      <c r="C19" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" t="s">
-        <v>23</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>3.70075866336361</v>
+        <v>0.02020466666666667</v>
       </c>
       <c r="H19">
-        <v>3.70075866336361</v>
+        <v>0.060614</v>
       </c>
       <c r="I19">
-        <v>0.04692158974761462</v>
+        <v>0.0002424322115816707</v>
       </c>
       <c r="J19">
-        <v>0.04692158974761462</v>
+        <v>0.0002591395969412635</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>39.5464332042761</v>
+        <v>40.4313585</v>
       </c>
       <c r="N19">
-        <v>39.5464332042761</v>
+        <v>80.862717</v>
       </c>
       <c r="O19">
-        <v>0.3453237099009637</v>
+        <v>0.3420013471084464</v>
       </c>
       <c r="P19">
-        <v>0.3453237099009637</v>
+        <v>0.2577079799800835</v>
       </c>
       <c r="Q19">
-        <v>146.3518052858551</v>
+        <v>0.816902121373</v>
       </c>
       <c r="R19">
-        <v>146.3518052858551</v>
+        <v>4.901412728238</v>
       </c>
       <c r="S19">
-        <v>0.0162031374460973</v>
+        <v>8.291214294341127E-05</v>
       </c>
       <c r="T19">
-        <v>0.0162031374460973</v>
+        <v>6.678234206058604E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H20">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I20">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J20">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.209166423063072</v>
+        <v>0.451749</v>
       </c>
       <c r="N20">
-        <v>0.209166423063072</v>
+        <v>0.903498</v>
       </c>
       <c r="O20">
-        <v>0.00182646371230881</v>
+        <v>0.003821260830374857</v>
       </c>
       <c r="P20">
-        <v>0.00182646371230881</v>
+        <v>0.00287943137621811</v>
       </c>
       <c r="Q20">
-        <v>1.57436954042372</v>
+        <v>1.695433422207</v>
       </c>
       <c r="R20">
-        <v>1.57436954042372</v>
+        <v>10.172600533242</v>
       </c>
       <c r="S20">
-        <v>0.0001743041433934405</v>
+        <v>0.0001720793894093441</v>
       </c>
       <c r="T20">
-        <v>0.0001743041433934405</v>
+        <v>0.0001386029143276995</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D21" t="s">
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H21">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I21">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J21">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>27.9188300643417</v>
+        <v>29.738655</v>
       </c>
       <c r="N21">
-        <v>27.9188300643417</v>
+        <v>89.21596500000001</v>
       </c>
       <c r="O21">
-        <v>0.243790228163246</v>
+        <v>0.2515537555136401</v>
       </c>
       <c r="P21">
-        <v>0.243790228163246</v>
+        <v>0.2843296264967678</v>
       </c>
       <c r="Q21">
-        <v>210.1415466874983</v>
+        <v>111.610450977165</v>
       </c>
       <c r="R21">
-        <v>210.1415466874983</v>
+        <v>1004.494058794485</v>
       </c>
       <c r="S21">
-        <v>0.0232655303257957</v>
+        <v>0.01132799318704665</v>
       </c>
       <c r="T21">
-        <v>0.0232655303257957</v>
+        <v>0.01368635321113942</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H22">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I22">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J22">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>22.8443971128282</v>
+        <v>22.95118433333333</v>
       </c>
       <c r="N22">
-        <v>22.8443971128282</v>
+        <v>68.85355300000001</v>
       </c>
       <c r="O22">
-        <v>0.199479733626134</v>
+        <v>0.194139802641909</v>
       </c>
       <c r="P22">
-        <v>0.199479733626134</v>
+        <v>0.2194349969477482</v>
       </c>
       <c r="Q22">
-        <v>171.9469236844732</v>
+        <v>86.13678170392635</v>
       </c>
       <c r="R22">
-        <v>171.9469236844732</v>
+        <v>775.2310353353372</v>
       </c>
       <c r="S22">
-        <v>0.01903686553405569</v>
+        <v>0.008742522476643677</v>
       </c>
       <c r="T22">
-        <v>0.01903686553405569</v>
+        <v>0.01056261674914246</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H23">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I23">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J23">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>22.8604766766159</v>
+        <v>23.37486266666667</v>
       </c>
       <c r="N23">
-        <v>22.8604766766159</v>
+        <v>70.124588</v>
       </c>
       <c r="O23">
-        <v>0.1996201421072751</v>
+        <v>0.1977236189200749</v>
       </c>
       <c r="P23">
-        <v>0.1996201421072751</v>
+        <v>0.2234857619292659</v>
       </c>
       <c r="Q23">
-        <v>172.0679525526822</v>
+        <v>87.72686470709468</v>
       </c>
       <c r="R23">
-        <v>172.0679525526822</v>
+        <v>789.5417823638521</v>
       </c>
       <c r="S23">
-        <v>0.01905026507759193</v>
+        <v>0.0089039092398816</v>
       </c>
       <c r="T23">
-        <v>0.01905026507759193</v>
+        <v>0.01075760241066303</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>7.526875094809</v>
+        <v>3.753043</v>
       </c>
       <c r="H24">
-        <v>7.526875094809</v>
+        <v>11.259129</v>
       </c>
       <c r="I24">
-        <v>0.0954325794806538</v>
+        <v>0.04503209727048742</v>
       </c>
       <c r="J24">
-        <v>0.0954325794806538</v>
+        <v>0.04813551573843818</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.14058632203313</v>
+        <v>1.272071333333334</v>
       </c>
       <c r="N24">
-        <v>1.14058632203313</v>
+        <v>3.816214</v>
       </c>
       <c r="O24">
-        <v>0.00995972249007243</v>
+        <v>0.01076021498555478</v>
       </c>
       <c r="P24">
-        <v>0.00995972249007243</v>
+        <v>0.01216220326991628</v>
       </c>
       <c r="Q24">
-        <v>8.585050780790965</v>
+        <v>4.774138413067335</v>
       </c>
       <c r="R24">
-        <v>8.585050780790965</v>
+        <v>42.96724571760601</v>
       </c>
       <c r="S24">
-        <v>0.0009504820081390923</v>
+        <v>0.0004845550478808592</v>
       </c>
       <c r="T24">
-        <v>0.0009504820081390923</v>
+        <v>0.0005854339269131392</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,433 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>3.753043</v>
+      </c>
+      <c r="H25">
+        <v>11.259129</v>
+      </c>
+      <c r="I25">
+        <v>0.04503209727048742</v>
+      </c>
+      <c r="J25">
+        <v>0.04813551573843818</v>
+      </c>
+      <c r="K25">
+        <v>2</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>40.4313585</v>
+      </c>
+      <c r="N25">
+        <v>80.862717</v>
+      </c>
+      <c r="O25">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P25">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q25">
+        <v>151.7406269989155</v>
+      </c>
+      <c r="R25">
+        <v>910.4437619934931</v>
+      </c>
+      <c r="S25">
+        <v>0.01540103792962529</v>
+      </c>
+      <c r="T25">
+        <v>0.01240490652625242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>7.7814465</v>
+      </c>
+      <c r="H26">
+        <v>15.562893</v>
+      </c>
+      <c r="I26">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J26">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.451749</v>
+      </c>
+      <c r="N26">
+        <v>0.903498</v>
+      </c>
+      <c r="O26">
+        <v>0.003821260830374857</v>
+      </c>
+      <c r="P26">
+        <v>0.00287943137621811</v>
+      </c>
+      <c r="Q26">
+        <v>3.5152606749285</v>
+      </c>
+      <c r="R26">
+        <v>14.061042699714</v>
+      </c>
+      <c r="S26">
+        <v>0.0003567842314733612</v>
+      </c>
+      <c r="T26">
+        <v>0.0001915834097975211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>7.7814465</v>
+      </c>
+      <c r="H27">
+        <v>15.562893</v>
+      </c>
+      <c r="I27">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J27">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>29.738655</v>
+      </c>
+      <c r="N27">
+        <v>89.21596500000001</v>
+      </c>
+      <c r="O27">
+        <v>0.2515537555136401</v>
+      </c>
+      <c r="P27">
+        <v>0.2843296264967678</v>
+      </c>
+      <c r="Q27">
+        <v>231.4097528644575</v>
+      </c>
+      <c r="R27">
+        <v>1388.458517186745</v>
+      </c>
+      <c r="S27">
+        <v>0.02348712043463611</v>
+      </c>
+      <c r="T27">
+        <v>0.01891791546088237</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>7.7814465</v>
+      </c>
+      <c r="H28">
+        <v>15.562893</v>
+      </c>
+      <c r="I28">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J28">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>22.95118433333333</v>
+      </c>
+      <c r="N28">
+        <v>68.85355300000001</v>
+      </c>
+      <c r="O28">
+        <v>0.194139802641909</v>
+      </c>
+      <c r="P28">
+        <v>0.2194349969477482</v>
+      </c>
+      <c r="Q28">
+        <v>178.5934130014715</v>
+      </c>
+      <c r="R28">
+        <v>1071.560478008829</v>
+      </c>
+      <c r="S28">
+        <v>0.01812648321030435</v>
+      </c>
+      <c r="T28">
+        <v>0.0146001412957354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>7.7814465</v>
+      </c>
+      <c r="H29">
+        <v>15.562893</v>
+      </c>
+      <c r="I29">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J29">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>23.37486266666667</v>
+      </c>
+      <c r="N29">
+        <v>70.124588</v>
+      </c>
+      <c r="O29">
+        <v>0.1977236189200749</v>
+      </c>
+      <c r="P29">
+        <v>0.2234857619292659</v>
+      </c>
+      <c r="Q29">
+        <v>181.890243285514</v>
+      </c>
+      <c r="R29">
+        <v>1091.341459713084</v>
+      </c>
+      <c r="S29">
+        <v>0.01846109767220742</v>
+      </c>
+      <c r="T29">
+        <v>0.01486965956724457</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
         <v>23</v>
       </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="H25">
-        <v>7.526875094809</v>
-      </c>
-      <c r="I25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="J25">
-        <v>0.0954325794806538</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="N25">
-        <v>39.5464332042761</v>
-      </c>
-      <c r="O25">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="P25">
-        <v>0.3453237099009637</v>
-      </c>
-      <c r="Q25">
-        <v>297.6610631737935</v>
-      </c>
-      <c r="R25">
-        <v>297.6610631737935</v>
-      </c>
-      <c r="S25">
-        <v>0.03295513239167795</v>
-      </c>
-      <c r="T25">
-        <v>0.03295513239167795</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>7.7814465</v>
+      </c>
+      <c r="H30">
+        <v>15.562893</v>
+      </c>
+      <c r="I30">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J30">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.272071333333334</v>
+      </c>
+      <c r="N30">
+        <v>3.816214</v>
+      </c>
+      <c r="O30">
+        <v>0.01076021498555478</v>
+      </c>
+      <c r="P30">
+        <v>0.01216220326991628</v>
+      </c>
+      <c r="Q30">
+        <v>9.898555024517002</v>
+      </c>
+      <c r="R30">
+        <v>59.39133014710201</v>
+      </c>
+      <c r="S30">
+        <v>0.00100466186542223</v>
+      </c>
+      <c r="T30">
+        <v>0.0008092140664805426</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>7.7814465</v>
+      </c>
+      <c r="H31">
+        <v>15.562893</v>
+      </c>
+      <c r="I31">
+        <v>0.0933681963391024</v>
+      </c>
+      <c r="J31">
+        <v>0.06653515391262763</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>40.4313585</v>
+      </c>
+      <c r="N31">
+        <v>80.862717</v>
+      </c>
+      <c r="O31">
+        <v>0.3420013471084464</v>
+      </c>
+      <c r="P31">
+        <v>0.2577079799800835</v>
+      </c>
+      <c r="Q31">
+        <v>314.6144530900703</v>
+      </c>
+      <c r="R31">
+        <v>1258.457812360281</v>
+      </c>
+      <c r="S31">
+        <v>0.03193204892505893</v>
+      </c>
+      <c r="T31">
+        <v>0.01714664011248722</v>
       </c>
     </row>
   </sheetData>
